--- a/testdata/TESTDRIVE.xlsx
+++ b/testdata/TESTDRIVE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28130" windowHeight="12530"/>
+    <workbookView windowWidth="18530" windowHeight="7130"/>
   </bookViews>
   <sheets>
     <sheet name="driveRecord" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>/client/v1/record/detail</t>
   </si>
   <si>
-    <t>{"driveId":"1563054601296388098"}</t>
+    <t>{"driveId":"1564556459867308033"}</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1107,10 @@
   <sheetPr/>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3" outlineLevelCol="4"/>
